--- a/sdlc/Requirements_Specification_Draft.xlsx
+++ b/sdlc/Requirements_Specification_Draft.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilha\projects\gemini-local-agent\sdlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilha\projects\phoenix\sdlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD82CB-8DA6-4C3A-BC9E-2D249959A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80738D2-9BD4-400A-8150-7E69767C906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37701022-40D4-4FFF-922C-13EC31670BBA}"/>
   </bookViews>
@@ -38,9 +38,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Specifier</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>PHX-GEN-001</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>PHX-GEN-002</t>
+  </si>
+  <si>
+    <t>PHX-GEN-003</t>
+  </si>
+  <si>
+    <t>The phoenix.py module shall function as the definitive execution entry point for the Phoenix application. When invoked as the main script, it shall perform the complete application bootstrap sequence, which must include: 
+(a) instantiating the core Flask and SocketIO server objects
+(b) establishing a successful connection to the persistent Haven service
+(c) registering all API routes and real-time event handlers
+(d) launching the server to begin listening for network connections</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +87,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -65,12 +118,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +517,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D6258-D7DA-4195-950A-6332622712C4}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="110.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
